--- a/WB/MakePrint/cat.xlsx
+++ b/WB/MakePrint/cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Маски силикон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A730E7DE-7EAE-4E6E-B609-4A5E10A95D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1D1F9-EB1D-49AD-A70F-EADDD5636CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18789" uniqueCount="3144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18819" uniqueCount="3154">
   <si>
     <t>Принт</t>
   </si>
@@ -9470,13 +9470,43 @@
   </si>
   <si>
     <t>машина авто</t>
+  </si>
+  <si>
+    <t>9 Мая</t>
+  </si>
+  <si>
+    <t>(Принт 3124)</t>
+  </si>
+  <si>
+    <t>9MY</t>
+  </si>
+  <si>
+    <t>(Принт 3125)</t>
+  </si>
+  <si>
+    <t>(Принт 3126)</t>
+  </si>
+  <si>
+    <t>(Принт 3127)</t>
+  </si>
+  <si>
+    <t>(Принт 3128)</t>
+  </si>
+  <si>
+    <t>(Принт 3129)</t>
+  </si>
+  <si>
+    <t>9 Мая С Днём Победы Желтая звезда горит</t>
+  </si>
+  <si>
+    <t>9 мая Они воевали чтобы мы жили Подвиг Ваш бессмер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9490,6 +9520,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -9812,10 +9848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3754"/>
+  <dimension ref="A1:E3760"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3734" workbookViewId="0">
+      <selection activeCell="E3758" sqref="E3758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73642,9 +73678,113 @@
         <v>3140</v>
       </c>
     </row>
+    <row r="3755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3755" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B3755" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3755" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3755" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3755" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3756" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B3756" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3756" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3756" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3756" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3757" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B3757" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3757" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3757" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3757" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3758" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B3758" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3758" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3758" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3758" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3759" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B3759" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3759" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3759" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3759" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3760" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B3760" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C3760" t="s">
+        <v>3146</v>
+      </c>
+      <c r="D3760" t="s">
+        <v>3152</v>
+      </c>
+      <c r="E3760" t="s">
+        <v>3153</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E3754" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
